--- a/time_shift.xlsx
+++ b/time_shift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasseur\Desktop\PINCII\Matlab_codes\Common_code\PINCii_HyICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasseur\OneDrive - University of Helsinki\PINCII\Matlab_codes\Common_code\PINCii_HyICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +482,7 @@
         <v>43213.388888888883</v>
       </c>
       <c r="C3" s="2">
-        <v>43213.792361111111</v>
+        <v>43213.466666666667</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -499,16 +499,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>43214.8125</v>
+        <v>43213.515625</v>
       </c>
       <c r="C4" s="2">
-        <v>43215.197916666664</v>
+        <v>43213.792361111111</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -516,16 +513,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>43215.604166666664</v>
+        <v>43214.8125</v>
       </c>
       <c r="C5" s="2">
-        <v>43215.739583333328</v>
+        <v>43215.197916666664</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -533,19 +530,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>43216.359722222223</v>
+        <v>43215.604166666664</v>
       </c>
       <c r="C6" s="2">
-        <v>43216.46875</v>
+        <v>43215.739583333328</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="F6" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -553,16 +547,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>43217.354166666664</v>
+        <v>43216.359722222223</v>
       </c>
       <c r="C7" s="2">
-        <v>43217.489583333328</v>
+        <v>43216.46875</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -570,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>43218.375</v>
+        <v>43217.354166666664</v>
       </c>
       <c r="C8" s="2">
-        <v>43218.53125</v>
+        <v>43217.489583333328</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -587,16 +584,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>43219.354166666664</v>
+        <v>43218.375</v>
       </c>
       <c r="C9" s="2">
-        <v>43219.552083333328</v>
+        <v>43218.53125</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -604,16 +601,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>43220.418749999997</v>
+        <v>43219.354166666664</v>
       </c>
       <c r="C10" s="2">
-        <v>43220.614583333328</v>
+        <v>43219.552083333328</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="F10" s="4">
         <v>19</v>
@@ -624,16 +618,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>43222.354166666664</v>
+        <v>43220.418749999997</v>
       </c>
       <c r="C11" s="2">
-        <v>43222.510416666664</v>
+        <v>43220.614583333328</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -641,16 +638,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>43223.364583333328</v>
+        <v>43222.354166666664</v>
       </c>
       <c r="C12" s="2">
-        <v>43223.458333333328</v>
+        <v>43222.510416666664</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -658,16 +655,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>43223.666666666664</v>
+        <v>43223.364583333328</v>
       </c>
       <c r="C13" s="2">
-        <v>43223.822916666664</v>
+        <v>43223.458333333328</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -675,19 +672,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>43224.854166666664</v>
+        <v>43223.666666666664</v>
       </c>
       <c r="C14" s="2">
-        <v>43224.90525462963</v>
+        <v>43223.822916666664</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -695,16 +689,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>43226.291666666664</v>
+        <v>43224.854166666664</v>
       </c>
       <c r="C15" s="2">
-        <v>43226.489583333328</v>
+        <v>43224.90525462963</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -712,10 +709,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>43226.625</v>
+        <v>43226.291666666664</v>
       </c>
       <c r="C16" s="2">
-        <v>43226.822916666664</v>
+        <v>43226.489583333328</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -729,16 +726,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>43228.333333333328</v>
+        <v>43226.625</v>
       </c>
       <c r="C17" s="2">
-        <v>43228.447916666664</v>
+        <v>43226.822916666664</v>
       </c>
       <c r="D17" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -746,16 +743,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>43228.583333333328</v>
+        <v>43228.333333333328</v>
       </c>
       <c r="C18" s="2">
-        <v>43228.760416666664</v>
+        <v>43228.447916666664</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
       </c>
       <c r="F18" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -763,16 +760,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>43228.875</v>
+        <v>43228.583333333328</v>
       </c>
       <c r="C19" s="2">
-        <v>43229.197916666664</v>
+        <v>43228.760416666664</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>
       </c>
       <c r="F19" s="4">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -780,16 +777,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>43229.333333333328</v>
+        <v>43228.875</v>
       </c>
       <c r="C20" s="2">
-        <v>43229.46875</v>
+        <v>43229.197916666664</v>
       </c>
       <c r="D20" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -797,16 +794,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>43229.583333333328</v>
+        <v>43229.333333333328</v>
       </c>
       <c r="C21" s="2">
-        <v>43229.739583333328</v>
+        <v>43229.46875</v>
       </c>
       <c r="D21" s="4">
         <v>15</v>
       </c>
       <c r="F21" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -814,16 +811,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>43229.833333333328</v>
+        <v>43229.583333333328</v>
       </c>
       <c r="C22" s="2">
-        <v>43230.052083333328</v>
+        <v>43229.739583333328</v>
       </c>
       <c r="D22" s="4">
         <v>15</v>
       </c>
       <c r="F22" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -831,16 +828,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>43230.208333333328</v>
+        <v>43229.833333333328</v>
       </c>
       <c r="C23" s="2">
-        <v>43230.677083333328</v>
+        <v>43230.052083333328</v>
       </c>
       <c r="D23" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -848,16 +845,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>43230.854166666664</v>
+        <v>43230.208333333328</v>
       </c>
       <c r="C24" s="2">
-        <v>43231.239583333328</v>
+        <v>43230.677083333328</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
       </c>
       <c r="F24" s="4">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -865,16 +862,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>43231.375</v>
+        <v>43230.854166666664</v>
       </c>
       <c r="C25" s="2">
-        <v>43231.510416666664</v>
+        <v>43231.239583333328</v>
       </c>
       <c r="D25" s="4">
         <v>20</v>
       </c>
       <c r="F25" s="4">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -882,10 +879,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>43231.625</v>
+        <v>43231.375</v>
       </c>
       <c r="C26" s="2">
-        <v>43231.760416666664</v>
+        <v>43231.510416666664</v>
       </c>
       <c r="D26" s="4">
         <v>20</v>
@@ -899,16 +896,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>43233.770833333328</v>
+        <v>43231.625</v>
       </c>
       <c r="C27" s="2">
-        <v>43234.15625</v>
+        <v>43231.760416666664</v>
       </c>
       <c r="D27" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -916,16 +913,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>43234.270833333328</v>
+        <v>43233.770833333328</v>
       </c>
       <c r="C28" s="2">
-        <v>43234.40625</v>
+        <v>43234.15625</v>
       </c>
       <c r="D28" s="4">
         <v>25</v>
       </c>
       <c r="F28" s="4">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -933,16 +930,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>43234.645833333328</v>
+        <v>43234.270833333328</v>
       </c>
       <c r="C29" s="2">
-        <v>43234.760416666664</v>
+        <v>43234.40625</v>
       </c>
       <c r="D29" s="4">
         <v>25</v>
       </c>
       <c r="F29" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -950,16 +947,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>43234.895833333328</v>
+        <v>43234.645833333328</v>
       </c>
       <c r="C30" s="2">
-        <v>43235.15625</v>
+        <v>43234.760416666664</v>
       </c>
       <c r="D30" s="4">
         <v>25</v>
       </c>
       <c r="F30" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -967,10 +964,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>43235.270833333328</v>
+        <v>43234.895833333328</v>
       </c>
       <c r="C31" s="2">
-        <v>43235.447916666664</v>
+        <v>43235.15625</v>
       </c>
       <c r="D31" s="4">
         <v>25</v>
@@ -984,16 +981,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>43236.645833333328</v>
+        <v>43235.270833333328</v>
       </c>
       <c r="C32" s="2">
-        <v>43236.864583333328</v>
+        <v>43235.447916666664</v>
       </c>
       <c r="D32" s="4">
         <v>25</v>
       </c>
       <c r="F32" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1001,16 +998,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>43237.416666666664</v>
+        <v>43236.645833333328</v>
       </c>
       <c r="C33" s="2">
-        <v>43237.572916666664</v>
+        <v>43236.864583333328</v>
       </c>
       <c r="D33" s="4">
         <v>25</v>
       </c>
       <c r="F33" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1018,16 +1015,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>43238.270833333328</v>
+        <v>43237.416666666664</v>
       </c>
       <c r="C34" s="2">
-        <v>43238.572916666664</v>
+        <v>43237.572916666664</v>
       </c>
       <c r="D34" s="4">
         <v>25</v>
       </c>
       <c r="F34" s="4">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1035,16 +1032,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>43241.5625</v>
+        <v>43238.270833333328</v>
       </c>
       <c r="C35" s="2">
-        <v>43241.802083333328</v>
+        <v>43238.572916666664</v>
       </c>
       <c r="D35" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F35" s="4">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1052,16 +1049,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>43242.375</v>
+        <v>43241.5625</v>
       </c>
       <c r="C36" s="2">
-        <v>43242.614583333328</v>
+        <v>43241.802083333328</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
       </c>
       <c r="F36" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1069,16 +1066,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>43242.916666666664</v>
+        <v>43242.375</v>
       </c>
       <c r="C37" s="2">
-        <v>43243.197916666664</v>
+        <v>43242.614583333328</v>
       </c>
       <c r="D37" s="4">
         <v>35</v>
       </c>
       <c r="F37" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1086,16 +1083,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>43243.333333333328</v>
+        <v>43242.916666666664</v>
       </c>
       <c r="C38" s="2">
-        <v>43243.447916666664</v>
+        <v>43243.197916666664</v>
       </c>
       <c r="D38" s="4">
         <v>35</v>
       </c>
       <c r="F38" s="4">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1103,16 +1100,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>43244.354166666664</v>
+        <v>43243.333333333328</v>
       </c>
       <c r="C39" s="2">
-        <v>43244.489583333328</v>
+        <v>43243.447916666664</v>
       </c>
       <c r="D39" s="4">
         <v>35</v>
       </c>
       <c r="F39" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1120,19 +1117,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>43245.354166666664</v>
+        <v>43244.354166666664</v>
       </c>
       <c r="C40" s="2">
-        <v>43245.822916666664</v>
+        <v>43244.489583333328</v>
       </c>
       <c r="D40" s="4">
         <v>35</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="F40" s="4">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1140,16 +1134,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>43246.604166666664</v>
+        <v>43245.354166666664</v>
       </c>
       <c r="C41" s="2">
-        <v>43246.864583333328</v>
+        <v>43245.822916666664</v>
       </c>
       <c r="D41" s="4">
         <v>35</v>
       </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F41" s="4">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1157,16 +1154,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>43247.4375</v>
+        <v>43246.604166666664</v>
       </c>
       <c r="C42" s="2">
-        <v>43247.635416666664</v>
+        <v>43246.864583333328</v>
       </c>
       <c r="D42" s="4">
         <v>35</v>
       </c>
       <c r="F42" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1174,16 +1171,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>43248.354166666664</v>
+        <v>43247.4375</v>
       </c>
       <c r="C43" s="2">
-        <v>43248.614583333328</v>
+        <v>43247.635416666664</v>
       </c>
       <c r="D43" s="4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F43" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1191,16 +1188,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>43249.354166666664</v>
+        <v>43248.354166666664</v>
       </c>
       <c r="C44" s="2">
-        <v>43249.552083333328</v>
+        <v>43248.614583333328</v>
       </c>
       <c r="D44" s="4">
         <v>50</v>
       </c>
       <c r="F44" s="4">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1208,10 +1205,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>43250.333333333328</v>
+        <v>43249.354166666664</v>
       </c>
       <c r="C45" s="2">
-        <v>43250.53125</v>
+        <v>43249.552083333328</v>
       </c>
       <c r="D45" s="4">
         <v>50</v>
@@ -1225,16 +1222,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>43250.666666666664</v>
+        <v>43250.333333333328</v>
       </c>
       <c r="C46" s="2">
-        <v>43250.885416666664</v>
+        <v>43250.53125</v>
       </c>
       <c r="D46" s="4">
         <v>50</v>
       </c>
       <c r="F46" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1242,16 +1239,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>43251.333333333328</v>
+        <v>43250.666666666664</v>
       </c>
       <c r="C47" s="2">
-        <v>43251.53125</v>
+        <v>43250.885416666664</v>
       </c>
       <c r="D47" s="4">
         <v>50</v>
       </c>
       <c r="F47" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1259,10 +1256,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>43251.666666666664</v>
+        <v>43251.333333333328</v>
       </c>
       <c r="C48" s="2">
-        <v>43251.864583333328</v>
+        <v>43251.53125</v>
       </c>
       <c r="D48" s="4">
         <v>50</v>
@@ -1276,19 +1273,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>43252.354166666664</v>
+        <v>43251.666666666664</v>
       </c>
       <c r="C49" s="2">
-        <v>43253.21875</v>
+        <v>43251.864583333328</v>
       </c>
       <c r="D49" s="4">
         <v>50</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="F49" s="4">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1296,10 +1290,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>43253.354166666664</v>
+        <v>43252.354166666664</v>
       </c>
       <c r="C50" s="2">
-        <v>43253.552083333328</v>
+        <v>43253.21875</v>
       </c>
       <c r="D50" s="4">
         <v>50</v>
@@ -1308,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="4">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1316,10 +1310,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>43254.4375</v>
+        <v>43253.354166666664</v>
       </c>
       <c r="C51" s="2">
-        <v>43254.65625</v>
+        <v>43253.552083333328</v>
       </c>
       <c r="D51" s="4">
         <v>50</v>
@@ -1328,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1336,13 +1330,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>43255.375</v>
+        <v>43254.4375</v>
       </c>
       <c r="C52" s="2">
-        <v>43255.59375</v>
+        <v>43254.65625</v>
       </c>
       <c r="D52" s="4">
         <v>50</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="4">
         <v>21</v>
@@ -1353,16 +1350,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>43255.729166666664</v>
+        <v>43255.375</v>
       </c>
       <c r="C53" s="2">
-        <v>43255.90625</v>
+        <v>43255.59375</v>
       </c>
       <c r="D53" s="4">
         <v>50</v>
       </c>
       <c r="F53" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1370,19 +1367,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>43256.23055555555</v>
+        <v>43255.729166666664</v>
       </c>
       <c r="C54" s="2">
-        <v>43256.447916666664</v>
+        <v>43255.90625</v>
       </c>
       <c r="D54" s="4">
         <v>50</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F54" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1390,16 +1384,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>43256.583333333328</v>
+        <v>43256.23055555555</v>
       </c>
       <c r="C55" s="2">
-        <v>43256.760416666664</v>
+        <v>43256.447916666664</v>
       </c>
       <c r="D55" s="4">
         <v>50</v>
       </c>
+      <c r="E55" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F55" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1407,16 +1404,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>43256.916666666664</v>
+        <v>43256.583333333328</v>
       </c>
       <c r="C56" s="2">
-        <v>43257.177083333328</v>
+        <v>43256.760416666664</v>
       </c>
       <c r="D56" s="4">
         <v>50</v>
       </c>
       <c r="F56" s="4">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1424,16 +1421,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>43257.3125</v>
+        <v>43256.916666666664</v>
       </c>
       <c r="C57" s="2">
-        <v>43257.552083333328</v>
+        <v>43257.177083333328</v>
       </c>
       <c r="D57" s="4">
         <v>50</v>
       </c>
       <c r="F57" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1441,16 +1438,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>43257.708333333328</v>
+        <v>43257.3125</v>
       </c>
       <c r="C58" s="2">
-        <v>43257.885416666664</v>
+        <v>43257.552083333328</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
       </c>
       <c r="F58" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1458,16 +1455,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>43258.25</v>
+        <v>43257.708333333328</v>
       </c>
       <c r="C59" s="2">
-        <v>43258.510416666664</v>
+        <v>43257.885416666664</v>
       </c>
       <c r="D59" s="4">
         <v>50</v>
       </c>
       <c r="F59" s="4">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1475,16 +1472,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>43258.645833333328</v>
+        <v>43258.25</v>
       </c>
       <c r="C60" s="2">
-        <v>43258.822916666664</v>
+        <v>43258.510416666664</v>
       </c>
       <c r="D60" s="4">
         <v>50</v>
       </c>
       <c r="F60" s="4">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1492,16 +1489,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>43258.958333333328</v>
+        <v>43258.645833333328</v>
       </c>
       <c r="C61" s="2">
-        <v>43259.15625</v>
+        <v>43258.822916666664</v>
       </c>
       <c r="D61" s="4">
         <v>50</v>
       </c>
       <c r="F61" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -1509,16 +1506,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>43259.354166666664</v>
+        <v>43258.958333333328</v>
       </c>
       <c r="C62" s="2">
-        <v>43259.572916666664</v>
+        <v>43259.15625</v>
       </c>
       <c r="D62" s="4">
         <v>50</v>
       </c>
       <c r="F62" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1526,19 +1523,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>43259.770833333328</v>
+        <v>43259.354166666664</v>
       </c>
       <c r="C63" s="2">
-        <v>43260.177083333328</v>
+        <v>43259.572916666664</v>
       </c>
       <c r="D63" s="4">
         <v>50</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="F63" s="4">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1546,16 +1540,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>43260.333333333328</v>
+        <v>43259.770833333328</v>
       </c>
       <c r="C64" s="2">
-        <v>43260.489583333328</v>
+        <v>43260.177083333328</v>
       </c>
       <c r="D64" s="4">
         <v>50</v>
       </c>
+      <c r="E64" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="4">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -1563,15 +1560,32 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
+        <v>43260.333333333328</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43260.489583333328</v>
+      </c>
+      <c r="D65" s="4">
+        <v>50</v>
+      </c>
+      <c r="F65" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
         <v>43260.645833333328</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>43261.21875</v>
       </c>
-      <c r="D65" s="4">
-        <v>50</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="D66" s="4">
+        <v>50</v>
+      </c>
+      <c r="F66" s="4">
         <v>13</v>
       </c>
     </row>
